--- a/s60_signal/position-00902-600011.xlsx
+++ b/s60_signal/position-00902-600011.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1581" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1587" uniqueCount="362">
   <si>
     <t>trade_time</t>
   </si>
@@ -1094,6 +1094,12 @@
   </si>
   <si>
     <t>2021-04-16</t>
+  </si>
+  <si>
+    <t>2021-04-19</t>
+  </si>
+  <si>
+    <t>2021-04-20</t>
   </si>
 </sst>
 </file>
@@ -1451,7 +1457,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P523"/>
+  <dimension ref="A1:P525"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -27604,6 +27610,106 @@
         <v>359</v>
       </c>
     </row>
+    <row r="524" spans="1:16">
+      <c r="A524" s="1">
+        <v>0</v>
+      </c>
+      <c r="B524" t="s">
+        <v>69</v>
+      </c>
+      <c r="C524">
+        <v>-1.228488383499212</v>
+      </c>
+      <c r="D524" t="s">
+        <v>159</v>
+      </c>
+      <c r="E524">
+        <v>-0.8641898820617673</v>
+      </c>
+      <c r="F524">
+        <v>1</v>
+      </c>
+      <c r="G524">
+        <v>0.009668488383499211</v>
+      </c>
+      <c r="H524">
+        <v>0.009244189882061769</v>
+      </c>
+      <c r="I524">
+        <v>0.3642985014374442</v>
+      </c>
+      <c r="J524">
+        <v>1.79226591562474</v>
+      </c>
+      <c r="K524">
+        <v>3.04</v>
+      </c>
+      <c r="L524">
+        <v>4.22</v>
+      </c>
+      <c r="M524">
+        <v>2.82</v>
+      </c>
+      <c r="N524">
+        <v>4.19</v>
+      </c>
+      <c r="O524">
+        <v>1</v>
+      </c>
+      <c r="P524" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="525" spans="1:16">
+      <c r="A525" s="1">
+        <v>0</v>
+      </c>
+      <c r="B525" t="s">
+        <v>69</v>
+      </c>
+      <c r="C525">
+        <v>-1.29306060430628</v>
+      </c>
+      <c r="D525" t="s">
+        <v>159</v>
+      </c>
+      <c r="E525">
+        <v>-0.9240891132051665</v>
+      </c>
+      <c r="F525">
+        <v>1</v>
+      </c>
+      <c r="G525">
+        <v>0.00973306060430628</v>
+      </c>
+      <c r="H525">
+        <v>0.009304089113205167</v>
+      </c>
+      <c r="I525">
+        <v>0.3689714911011137</v>
+      </c>
+      <c r="J525">
+        <v>1.813506777732329</v>
+      </c>
+      <c r="K525">
+        <v>3.04</v>
+      </c>
+      <c r="L525">
+        <v>4.22</v>
+      </c>
+      <c r="M525">
+        <v>2.82</v>
+      </c>
+      <c r="N525">
+        <v>4.19</v>
+      </c>
+      <c r="O525">
+        <v>1</v>
+      </c>
+      <c r="P525" t="s">
+        <v>361</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/s60_signal/position-00902-600011.xlsx
+++ b/s60_signal/position-00902-600011.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1587" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1590" uniqueCount="363">
   <si>
     <t>trade_time</t>
   </si>
@@ -1100,6 +1100,9 @@
   </si>
   <si>
     <t>2021-04-20</t>
+  </si>
+  <si>
+    <t>2021-04-21</t>
   </si>
 </sst>
 </file>
@@ -1457,7 +1460,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P525"/>
+  <dimension ref="A1:P526"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -27710,6 +27713,56 @@
         <v>361</v>
       </c>
     </row>
+    <row r="526" spans="1:16">
+      <c r="A526" s="1">
+        <v>0</v>
+      </c>
+      <c r="B526" t="s">
+        <v>69</v>
+      </c>
+      <c r="C526">
+        <v>-1.362823987486787</v>
+      </c>
+      <c r="D526" t="s">
+        <v>159</v>
+      </c>
+      <c r="E526">
+        <v>-0.988803830497611</v>
+      </c>
+      <c r="F526">
+        <v>1</v>
+      </c>
+      <c r="G526">
+        <v>0.009802823987486785</v>
+      </c>
+      <c r="H526">
+        <v>0.009368803830497612</v>
+      </c>
+      <c r="I526">
+        <v>0.3740201569891761</v>
+      </c>
+      <c r="J526">
+        <v>1.836455259041706</v>
+      </c>
+      <c r="K526">
+        <v>3.04</v>
+      </c>
+      <c r="L526">
+        <v>4.22</v>
+      </c>
+      <c r="M526">
+        <v>2.82</v>
+      </c>
+      <c r="N526">
+        <v>4.19</v>
+      </c>
+      <c r="O526">
+        <v>1</v>
+      </c>
+      <c r="P526" t="s">
+        <v>362</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/s60_signal/position-00902-600011.xlsx
+++ b/s60_signal/position-00902-600011.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1590" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1593" uniqueCount="364">
   <si>
     <t>trade_time</t>
   </si>
@@ -1103,6 +1103,9 @@
   </si>
   <si>
     <t>2021-04-21</t>
+  </si>
+  <si>
+    <t>2021-04-22</t>
   </si>
 </sst>
 </file>
@@ -1460,7 +1463,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P526"/>
+  <dimension ref="A1:P527"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -27763,6 +27766,56 @@
         <v>362</v>
       </c>
     </row>
+    <row r="527" spans="1:16">
+      <c r="A527" s="1">
+        <v>0</v>
+      </c>
+      <c r="B527" t="s">
+        <v>69</v>
+      </c>
+      <c r="C527">
+        <v>-1.446771238461646</v>
+      </c>
+      <c r="D527" t="s">
+        <v>159</v>
+      </c>
+      <c r="E527">
+        <v>-1.06667595146771</v>
+      </c>
+      <c r="F527">
+        <v>1</v>
+      </c>
+      <c r="G527">
+        <v>0.009886771238461645</v>
+      </c>
+      <c r="H527">
+        <v>0.009446675951467712</v>
+      </c>
+      <c r="I527">
+        <v>0.380095286993936</v>
+      </c>
+      <c r="J527">
+        <v>1.864069486336068</v>
+      </c>
+      <c r="K527">
+        <v>3.04</v>
+      </c>
+      <c r="L527">
+        <v>4.22</v>
+      </c>
+      <c r="M527">
+        <v>2.82</v>
+      </c>
+      <c r="N527">
+        <v>4.19</v>
+      </c>
+      <c r="O527">
+        <v>1</v>
+      </c>
+      <c r="P527" t="s">
+        <v>363</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/s60_signal/position-00902-600011.xlsx
+++ b/s60_signal/position-00902-600011.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1593" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1605" uniqueCount="368">
   <si>
     <t>trade_time</t>
   </si>
@@ -1106,6 +1106,18 @@
   </si>
   <si>
     <t>2021-04-22</t>
+  </si>
+  <si>
+    <t>2021-04-23</t>
+  </si>
+  <si>
+    <t>2021-04-26</t>
+  </si>
+  <si>
+    <t>2021-04-27</t>
+  </si>
+  <si>
+    <t>2021-04-28</t>
   </si>
 </sst>
 </file>
@@ -1463,7 +1475,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P527"/>
+  <dimension ref="A1:P531"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -27816,6 +27828,206 @@
         <v>363</v>
       </c>
     </row>
+    <row r="528" spans="1:16">
+      <c r="A528" s="1">
+        <v>0</v>
+      </c>
+      <c r="B528" t="s">
+        <v>69</v>
+      </c>
+      <c r="C528">
+        <v>-1.55778001938641</v>
+      </c>
+      <c r="D528" t="s">
+        <v>159</v>
+      </c>
+      <c r="E528">
+        <v>-1.169651202193972</v>
+      </c>
+      <c r="F528">
+        <v>1</v>
+      </c>
+      <c r="G528">
+        <v>0.00999778001938641</v>
+      </c>
+      <c r="H528">
+        <v>0.009549651202193973</v>
+      </c>
+      <c r="I528">
+        <v>0.3881288171924382</v>
+      </c>
+      <c r="J528">
+        <v>1.900585532692898</v>
+      </c>
+      <c r="K528">
+        <v>3.04</v>
+      </c>
+      <c r="L528">
+        <v>4.22</v>
+      </c>
+      <c r="M528">
+        <v>2.82</v>
+      </c>
+      <c r="N528">
+        <v>4.19</v>
+      </c>
+      <c r="O528">
+        <v>1</v>
+      </c>
+      <c r="P528" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="529" spans="1:16">
+      <c r="A529" s="1">
+        <v>0</v>
+      </c>
+      <c r="B529" t="s">
+        <v>69</v>
+      </c>
+      <c r="C529">
+        <v>-1.675411230839367</v>
+      </c>
+      <c r="D529" t="s">
+        <v>159</v>
+      </c>
+      <c r="E529">
+        <v>-1.278769628607569</v>
+      </c>
+      <c r="F529">
+        <v>1</v>
+      </c>
+      <c r="G529">
+        <v>0.01011541123083937</v>
+      </c>
+      <c r="H529">
+        <v>0.00965876962860757</v>
+      </c>
+      <c r="I529">
+        <v>0.3966416022317976</v>
+      </c>
+      <c r="J529">
+        <v>1.939280010144528</v>
+      </c>
+      <c r="K529">
+        <v>3.04</v>
+      </c>
+      <c r="L529">
+        <v>4.22</v>
+      </c>
+      <c r="M529">
+        <v>2.82</v>
+      </c>
+      <c r="N529">
+        <v>4.19</v>
+      </c>
+      <c r="O529">
+        <v>1</v>
+      </c>
+      <c r="P529" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="530" spans="1:16">
+      <c r="A530" s="1">
+        <v>0</v>
+      </c>
+      <c r="B530" t="s">
+        <v>69</v>
+      </c>
+      <c r="C530">
+        <v>-1.976515141630071</v>
+      </c>
+      <c r="D530" t="s">
+        <v>159</v>
+      </c>
+      <c r="E530">
+        <v>-1.558083124801579</v>
+      </c>
+      <c r="F530">
+        <v>1</v>
+      </c>
+      <c r="G530">
+        <v>0.01041651514163007</v>
+      </c>
+      <c r="H530">
+        <v>0.009938083124801579</v>
+      </c>
+      <c r="I530">
+        <v>0.4184320168284925</v>
+      </c>
+      <c r="J530">
+        <v>2.038327349220418</v>
+      </c>
+      <c r="K530">
+        <v>3.04</v>
+      </c>
+      <c r="L530">
+        <v>4.22</v>
+      </c>
+      <c r="M530">
+        <v>2.82</v>
+      </c>
+      <c r="N530">
+        <v>4.19</v>
+      </c>
+      <c r="O530">
+        <v>1</v>
+      </c>
+      <c r="P530" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="531" spans="1:16">
+      <c r="A531" s="1">
+        <v>0</v>
+      </c>
+      <c r="B531" t="s">
+        <v>69</v>
+      </c>
+      <c r="C531">
+        <v>-2.248289351143409</v>
+      </c>
+      <c r="D531" t="s">
+        <v>159</v>
+      </c>
+      <c r="E531">
+        <v>-1.810189463889609</v>
+      </c>
+      <c r="F531">
+        <v>1</v>
+      </c>
+      <c r="G531">
+        <v>0.01068828935114341</v>
+      </c>
+      <c r="H531">
+        <v>0.01019018946388961</v>
+      </c>
+      <c r="I531">
+        <v>0.4380998872538004</v>
+      </c>
+      <c r="J531">
+        <v>2.127726760244542</v>
+      </c>
+      <c r="K531">
+        <v>3.04</v>
+      </c>
+      <c r="L531">
+        <v>4.22</v>
+      </c>
+      <c r="M531">
+        <v>2.82</v>
+      </c>
+      <c r="N531">
+        <v>4.19</v>
+      </c>
+      <c r="O531">
+        <v>1</v>
+      </c>
+      <c r="P531" t="s">
+        <v>367</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/s60_signal/position-00902-600011.xlsx
+++ b/s60_signal/position-00902-600011.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1605" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1608" uniqueCount="369">
   <si>
     <t>trade_time</t>
   </si>
@@ -1118,6 +1118,9 @@
   </si>
   <si>
     <t>2021-04-28</t>
+  </si>
+  <si>
+    <t>2021-04-29</t>
   </si>
 </sst>
 </file>
@@ -1475,7 +1478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P531"/>
+  <dimension ref="A1:P532"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28028,6 +28031,56 @@
         <v>367</v>
       </c>
     </row>
+    <row r="532" spans="1:16">
+      <c r="A532" s="1">
+        <v>0</v>
+      </c>
+      <c r="B532" t="s">
+        <v>69</v>
+      </c>
+      <c r="C532">
+        <v>-2.353293759761697</v>
+      </c>
+      <c r="D532" t="s">
+        <v>159</v>
+      </c>
+      <c r="E532">
+        <v>-1.907594869252626</v>
+      </c>
+      <c r="F532">
+        <v>1</v>
+      </c>
+      <c r="G532">
+        <v>0.0107932937597617</v>
+      </c>
+      <c r="H532">
+        <v>0.01028759486925263</v>
+      </c>
+      <c r="I532">
+        <v>0.4456988905090711</v>
+      </c>
+      <c r="J532">
+        <v>2.162267684132137</v>
+      </c>
+      <c r="K532">
+        <v>3.04</v>
+      </c>
+      <c r="L532">
+        <v>4.22</v>
+      </c>
+      <c r="M532">
+        <v>2.82</v>
+      </c>
+      <c r="N532">
+        <v>4.19</v>
+      </c>
+      <c r="O532">
+        <v>1</v>
+      </c>
+      <c r="P532" t="s">
+        <v>368</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/s60_signal/position-00902-600011.xlsx
+++ b/s60_signal/position-00902-600011.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1608" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1614" uniqueCount="371">
   <si>
     <t>trade_time</t>
   </si>
@@ -1121,6 +1121,12 @@
   </si>
   <si>
     <t>2021-04-29</t>
+  </si>
+  <si>
+    <t>2021-04-30</t>
+  </si>
+  <si>
+    <t>2021-05-06</t>
   </si>
 </sst>
 </file>
@@ -1478,7 +1484,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P532"/>
+  <dimension ref="A1:P534"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28081,6 +28087,106 @@
         <v>368</v>
       </c>
     </row>
+    <row r="533" spans="1:16">
+      <c r="A533" s="1">
+        <v>0</v>
+      </c>
+      <c r="B533" t="s">
+        <v>69</v>
+      </c>
+      <c r="C533">
+        <v>-2.526299327422145</v>
+      </c>
+      <c r="D533" t="s">
+        <v>159</v>
+      </c>
+      <c r="E533">
+        <v>-2.068080297148173</v>
+      </c>
+      <c r="F533">
+        <v>1</v>
+      </c>
+      <c r="G533">
+        <v>0.01096629932742215</v>
+      </c>
+      <c r="H533">
+        <v>0.01044808029714817</v>
+      </c>
+      <c r="I533">
+        <v>0.4582190302739724</v>
+      </c>
+      <c r="J533">
+        <v>2.219177410336232</v>
+      </c>
+      <c r="K533">
+        <v>3.04</v>
+      </c>
+      <c r="L533">
+        <v>4.22</v>
+      </c>
+      <c r="M533">
+        <v>2.82</v>
+      </c>
+      <c r="N533">
+        <v>4.19</v>
+      </c>
+      <c r="O533">
+        <v>1</v>
+      </c>
+      <c r="P533" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="534" spans="1:16">
+      <c r="A534" s="1">
+        <v>0</v>
+      </c>
+      <c r="B534" t="s">
+        <v>69</v>
+      </c>
+      <c r="C534">
+        <v>-2.743107768168906</v>
+      </c>
+      <c r="D534" t="s">
+        <v>159</v>
+      </c>
+      <c r="E534">
+        <v>-2.269198653367208</v>
+      </c>
+      <c r="F534">
+        <v>1</v>
+      </c>
+      <c r="G534">
+        <v>0.01118310776816891</v>
+      </c>
+      <c r="H534">
+        <v>0.01064919865336721</v>
+      </c>
+      <c r="I534">
+        <v>0.4739091148016978</v>
+      </c>
+      <c r="J534">
+        <v>2.29049597637135</v>
+      </c>
+      <c r="K534">
+        <v>3.04</v>
+      </c>
+      <c r="L534">
+        <v>4.22</v>
+      </c>
+      <c r="M534">
+        <v>2.82</v>
+      </c>
+      <c r="N534">
+        <v>4.19</v>
+      </c>
+      <c r="O534">
+        <v>1</v>
+      </c>
+      <c r="P534" t="s">
+        <v>370</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/s60_signal/position-00902-600011.xlsx
+++ b/s60_signal/position-00902-600011.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1614" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1620" uniqueCount="373">
   <si>
     <t>trade_time</t>
   </si>
@@ -1127,6 +1127,12 @@
   </si>
   <si>
     <t>2021-05-06</t>
+  </si>
+  <si>
+    <t>2021-05-07</t>
+  </si>
+  <si>
+    <t>2021-05-10</t>
   </si>
 </sst>
 </file>
@@ -1484,7 +1490,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P534"/>
+  <dimension ref="A1:P536"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28187,6 +28193,106 @@
         <v>370</v>
       </c>
     </row>
+    <row r="535" spans="1:16">
+      <c r="A535" s="1">
+        <v>0</v>
+      </c>
+      <c r="B535" t="s">
+        <v>69</v>
+      </c>
+      <c r="C535">
+        <v>-2.900537245558254</v>
+      </c>
+      <c r="D535" t="s">
+        <v>159</v>
+      </c>
+      <c r="E535">
+        <v>-2.415235208050748</v>
+      </c>
+      <c r="F535">
+        <v>1</v>
+      </c>
+      <c r="G535">
+        <v>0.01134053724555825</v>
+      </c>
+      <c r="H535">
+        <v>0.01079523520805075</v>
+      </c>
+      <c r="I535">
+        <v>0.4853020375075054</v>
+      </c>
+      <c r="J535">
+        <v>2.342281988670478</v>
+      </c>
+      <c r="K535">
+        <v>3.04</v>
+      </c>
+      <c r="L535">
+        <v>4.22</v>
+      </c>
+      <c r="M535">
+        <v>2.82</v>
+      </c>
+      <c r="N535">
+        <v>4.19</v>
+      </c>
+      <c r="O535">
+        <v>1</v>
+      </c>
+      <c r="P535" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="536" spans="1:16">
+      <c r="A536" s="1">
+        <v>0</v>
+      </c>
+      <c r="B536" t="s">
+        <v>69</v>
+      </c>
+      <c r="C536">
+        <v>-3.035837006849226</v>
+      </c>
+      <c r="D536" t="s">
+        <v>159</v>
+      </c>
+      <c r="E536">
+        <v>-2.540743539248294</v>
+      </c>
+      <c r="F536">
+        <v>1</v>
+      </c>
+      <c r="G536">
+        <v>0.01147583700684923</v>
+      </c>
+      <c r="H536">
+        <v>0.0109207435392483</v>
+      </c>
+      <c r="I536">
+        <v>0.495093467600932</v>
+      </c>
+      <c r="J536">
+        <v>2.38678848909514</v>
+      </c>
+      <c r="K536">
+        <v>3.04</v>
+      </c>
+      <c r="L536">
+        <v>4.22</v>
+      </c>
+      <c r="M536">
+        <v>2.82</v>
+      </c>
+      <c r="N536">
+        <v>4.19</v>
+      </c>
+      <c r="O536">
+        <v>1</v>
+      </c>
+      <c r="P536" t="s">
+        <v>372</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
